--- a/Datascraping/output_excel_files_new/Indian Institute of Technology Mandi_tables.xlsx
+++ b/Datascraping/output_excel_files_new/Indian Institute of Technology Mandi_tables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,12 +611,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>394</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -895,27 +895,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>387</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>492</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>473</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -930,17 +930,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>214</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>176</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1500000(Fifteen lakh)</t>
+          <t>1500000(Fifteen Lakh)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1123,7 +1123,7 @@
       <c r="I12" t="inlineStr">
         <is>
           <t>1800000(Eighteen-lakh)</t>
+Lakh)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1492,12 +1492,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>270</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>172</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>78</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>83</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1539,12 +1539,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>334</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>263</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1554,12 +1554,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>235</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>109</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>121</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1587,12 +1587,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>347</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1602,23 +1602,23 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>168</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>87</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>700000(Seven lakh+          <t>720000(Seven lakh twenty thousand)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>74</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1899,13 +1899,13 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Library</t>
+          <t>Library ( Books, Journals and e-Resources only)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>35101891 (Three Crore Fifty one Lakh one thousand Eight-Hundred Ninety One)</t>
+          <t>35101895 (Three crore fifty one lakh one thousand eight+hundred ninety five)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1933,13 +1933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>New Equipment for Laboratories</t>
+          <t>New Equipment and software for Laboratories</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>37610048 (Three crore seventy six lakh ten thousand forty-eight)</t>
+          <t>37610048 (Three crore seventy six lakh forty eight)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1972,8 +1971,8 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>46767696 (Four Crore Sixty Seven Lakh Sixty Seven thousand-six hundred Ninety Six )</t>
+          <t>46767696 (Four crore sixty seven lakh sixty seven thousand+six hundred ninety six)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2001,23 +2000,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Studios</t>
+          <t>Other expenditure on creation of Capital Assets (For setting up+classrooms, seminar hall, conference hall , library, Lab, Engg+workshops excluding expenditure on Land and Building)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>387553 (Three Lakh Eighty Seven Thousand Five hundred fifty-three)</t>
+          <t>28221512 (Two Crore eighty two lakh twenty one thousand five+hundred twelve )</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0 (zero)</t>
+          <t>33468379 (Three crore thirty four lakh sixty eight thousand+three hundred seventy nine)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0 (zero)</t>
+          <t>23538537 (Two crore thirty five lakh thirty eight thousand five+hundred thirty seven)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2033,26 +2036,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Other expenditure on creation of Capital Assets (excluding-expenditure on Land and Building)</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>27833959 (Two Crore Seventy Eight lakh thirty Three-Thousand Nine Hundred Fifty Nine)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>33468379 (Three crore thirty four lakh sixty eight thousand-three hundred seventy nine)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>23538537 (Two crore thirty five lakh thirty eight thousand five-hundred thirty seven)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2066,24 +2065,20 @@
       <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Financial Year</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2097,22 +2092,14 @@
       <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Annual Operational Expenditure</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -2126,12 +2113,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Annual Operational Expenditure</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+          <t>Salaries (Teaching and Non Teaching staff)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>400687047 (Forty crore six lakh eighty seven thousand forty+seven)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>376059112 (Thirty Seven crore sixty lakh fifty nine thousand+one hundred twelve)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>489897650 (Forty eight crore ninety eight lakh ninety seven+thousand six hundred fifty)</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -2145,25 +2147,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Salaries (Teaching and Non Teaching staff)</t>
+          <t>Maintenance of Academic Infrastructure or consumables and+other running expenditures(excluding maintenance of hostels+and allied services,rent of the building, depreciation cost, etc)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>400687047 (Forty crore six lakh eighty seven thousand forty-seven)</t>
+          <t>553386093 (Fifty five crore thirty three lakh eighty six thousand+ninety three)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>376059112 (Thirty Seven crore sixty lakh fifty nine thousand-one hundred twelve)</t>
+          <t>427797064 (Forty two crore seventy seven lakh ninety seven+thousand sixty four)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>489897650 (Forty eight crore ninety eight lakh ninety seven-thousand six hundred fifty)</t>
+          <t>297339551 (Twenty nine crore seventy three lakh thirty nine+thousand five hundred fity one)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2179,27 +2183,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Maintenance of Academic Infrastructure or consumables and-other running expenditures(excluding maintenance of hostels-and allied services,rent of the building, depreciation cost, etc)</t>
+          <t>Seminars/Conferences/Workshops</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>553386093 (Fifty Five Crore Thirty Three Lakh Eighty Six-Thousand and Ninety Three )</t>
+          <t>1034001 (Ten Lakh thirty four thousand and one)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>427797064 (Forty two crore seventy seven lakh ninety seven-thousand sixty four)</t>
+          <t>490857 (Four lakh ninety thousand eight hundred fifty seven)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>297339551 (Twenty nine crore seventy three lakh thirty nine-thousand five hundred fity one)</t>
+          <t>748612 (Seven lakh forty eight thousand six hundred twelve)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2215,22 +2214,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Seminars/Conferences/Workshops</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1034001 (Ten Lakh thirty four thousand and one)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>490857 (Four lakh ninety thousand eight hundred fifty seven)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>748612 (Seven lakh forty eight thousand six hundred twelve)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2246,22 +2245,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Total no. of Sponsored Projects</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>163</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>171</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2277,22 +2276,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Total no. of Sponsored Projects</t>
+          <t>Total no. of Funding Agencies</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2308,22 +2307,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Total no. of Funding Agencies</t>
+          <t>Total Amount Received (Amount in Rupees)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>114230547</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>104309305</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>185350872</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -2339,22 +2338,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>Amount Received in Words</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>114230547</t>
+          <t>Eleven Crore forty two lakh thirty thousand five hundred forty+seven</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>104309305</t>
+          <t>Ten crore forty three lakh nine thousand three hundred five</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>185350872</t>
+          <t>Eighteen crore fifty three lakh fifty thousand eight hundred+seventy two</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -2370,24 +2371,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Eleven Crore forty two lakh thirty thousand five hundred forty-seven</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ten crore forty three lakh nine thousand three hundred five</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Eighteen crore fifty three lakh fifty thousand eight hundred-seventy two</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2403,22 +2402,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Total no. of Consultancy Projects</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -2434,7 +2433,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Total no. of Consultancy Projects</t>
+          <t>Total no. of Client Organizations</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2449,7 +2448,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -2465,22 +2464,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Total no. of Client Organizations</t>
+          <t>Total Amount Received (Amount in Rupees)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>7402472</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5687378</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8219609</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -2496,22 +2495,23 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>Amount Received in Words</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7402472</t>
+          <t>Seventy four lakh two thousand four hundred seventy two</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>5687378</t>
+          <t>Fifty six lakh eighty seven thousand three hundred seventy+eight</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8219609</t>
+          <t>Eighty two lakh ninteen thousand six hundred nine</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -2527,25 +2527,16 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>1. Do your institution buildings have Lifts/Ramps?</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Seventy four lakh two thousand four hundred seventy two</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Fifty six lakh eighty seven thousand three hundred seventy-eight</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Eighty two lakh ninteen thousand six hundred nine</t>
-        </is>
-      </c>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -2559,24 +2550,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for+handicapped students?</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
@@ -2590,25 +2574,16 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Total no. of Executive Development Programs/ Management-Development Programs</t>
+          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
@@ -2622,24 +2597,16 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Total no. of Participants</t>
+          <t>Number of faculty members entered</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2650,140 +2617,6 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Total Annual Earnings (Amount in Rupees)(Excluding Lodging-&amp; Boarding Charges)</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>3809631</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2627878</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Total Annual Earnings in Words</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Thirty eight lakh nine thousand six hundred thirty one</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Twenty six lakhs twenty seven thousand eight hundred seventy-eight only</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Zero</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>1. Do your institution buildings have Lifts/Ramps?</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for-handicapped students?</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
